--- a/L1/L1.xlsx
+++ b/L1/L1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>V2</t>
   </si>
@@ -40,11 +40,20 @@
   <si>
     <t>Id, mA</t>
   </si>
+  <si>
+    <t>f, kHz</t>
+  </si>
+  <si>
+    <t>V2, V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -358,18 +368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -385,8 +396,14 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -403,8 +420,14 @@
         <f>($B$2-E2)/$B$1*1000</f>
         <v>3.3333333333333215E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <v>11.9</v>
       </c>
@@ -415,8 +438,14 @@
         <f t="shared" ref="G3:G13" si="0">($B$2-E3)/$B$1*1000</f>
         <v>3.3333333333333215E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>102</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <v>11.9</v>
       </c>
@@ -427,8 +456,14 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333215E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>104</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>11.9</v>
       </c>
@@ -439,8 +474,14 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333215E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>106</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>11.9</v>
       </c>
@@ -451,8 +492,14 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333215E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>108</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>11.9</v>
       </c>
@@ -463,8 +510,14 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333215E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>110</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>11.87</v>
       </c>
@@ -475,8 +528,14 @@
         <f t="shared" si="0"/>
         <v>4.3333333333333592E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>112</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>11.79</v>
       </c>
@@ -487,8 +546,14 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>114</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>11.63</v>
       </c>
@@ -499,8 +564,14 @@
         <f t="shared" si="0"/>
         <v>0.12333333333333307</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>116</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>11.34</v>
       </c>
@@ -511,8 +582,14 @@
         <f t="shared" si="0"/>
         <v>0.22000000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>118</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>10.96</v>
       </c>
@@ -523,8 +600,14 @@
         <f t="shared" si="0"/>
         <v>0.3466666666666664</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>120</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>10.79</v>
       </c>
@@ -535,8 +618,14 @@
         <f t="shared" si="0"/>
         <v>0.4033333333333336</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>122</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>10.7</v>
       </c>
@@ -547,8 +636,14 @@
         <f>($B$2-E14)/$B$1*1000</f>
         <v>0.43333333333333357</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>124</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>10.47</v>
       </c>
@@ -559,8 +654,14 @@
         <f>($B$2-E15)/$B$1*1000</f>
         <v>0.50999999999999979</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>126</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>9.81</v>
       </c>
@@ -571,8 +672,14 @@
         <f>($B$2-E16)/$B$1*1000</f>
         <v>0.72999999999999987</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>128</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>8.8800000000000008</v>
       </c>
@@ -583,8 +690,14 @@
         <f>($B$2-E17)/$B$1*1000</f>
         <v>1.0399999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>130</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>7.93</v>
       </c>
@@ -595,8 +708,14 @@
         <f>($B$2-E18)/$B$1*1000</f>
         <v>1.3566666666666669</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>132</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>6.88</v>
       </c>
@@ -607,8 +726,14 @@
         <f>($B$2-E19)/$B$1*1000</f>
         <v>1.7066666666666666</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>134</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>5.92</v>
       </c>
@@ -619,8 +744,14 @@
         <f>($B$2-E20)/$B$1*1000</f>
         <v>2.0266666666666668</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>136</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>4.95</v>
       </c>
@@ -631,8 +762,14 @@
         <f>($B$2-E21)/$B$1*1000</f>
         <v>2.35</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>138</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <v>3.85</v>
       </c>
@@ -643,8 +780,14 @@
         <f>($B$2-E22)/$B$1*1000</f>
         <v>2.7166666666666668</v>
       </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>140</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <v>2.9</v>
       </c>
@@ -655,8 +798,14 @@
         <f>($B$2-E23)/$B$1*1000</f>
         <v>3.0333333333333332</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>142</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <v>1.8</v>
       </c>
@@ -667,8 +816,14 @@
         <f>($B$2-E24)/$B$1*1000</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>144</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <v>0.86</v>
       </c>
@@ -679,8 +834,14 @@
         <f>($B$2-E25)/$B$1*1000</f>
         <v>3.7133333333333338</v>
       </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>146</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <v>0.4</v>
       </c>
@@ -691,8 +852,14 @@
         <f>($B$2-E26)/$B$1*1000</f>
         <v>3.8666666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>148</v>
+      </c>
+      <c r="J26" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <v>0.2</v>
       </c>
@@ -703,8 +870,14 @@
         <f>($B$2-E27)/$B$1*1000</f>
         <v>3.933333333333334</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>150</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <v>0.185</v>
       </c>
@@ -714,6 +887,44 @@
       <c r="G28" s="1">
         <f>($B$2-E28)/$B$1*1000</f>
         <v>3.9383333333333326</v>
+      </c>
+      <c r="I28">
+        <v>152</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>154</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>156</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>158</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>160</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
